--- a/Certificates/Courses/AAALinks.xlsx
+++ b/Certificates/Courses/AAALinks.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Desktop\Git Things\DataCamp\Certificates\Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FDCA97-721D-4569-AC11-1652ADA7B64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63857A-E980-4AE3-92F1-DAF0EDD798D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1190" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$B$64</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$B$72</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>Analyzing Police Activity with pandas</t>
   </si>
@@ -93,12 +93,6 @@
     <t>https://www.datacamp.com/statement-of-accomplishment/course/9b4b4e4a0c902ed9a6de609d806fde8a53bac9b7</t>
   </si>
   <si>
-    <t>Introduction to Data Science in Python</t>
-  </si>
-  <si>
-    <t>https://www.datacamp.com/statement-of-accomplishment/course/8520376fdc73834b379c371c9c488676599656ed</t>
-  </si>
-  <si>
     <t>Introduction to Data Visualization in Python</t>
   </si>
   <si>
@@ -327,12 +321,6 @@
     <t>https://www.datacamp.com/statement-of-accomplishment/course/3e40617a4fc55b7800c94e0cf8e1349fa3ba6633</t>
   </si>
   <si>
-    <t>Introduction to Deep Learning with Keras</t>
-  </si>
-  <si>
-    <t>https://www.datacamp.com/statement-of-accomplishment/course/87272640e858938a0ad4a0cac9a5ed2ebba0a16c</t>
-  </si>
-  <si>
     <t>Image Processing with Keras in Python</t>
   </si>
   <si>
@@ -415,13 +403,67 @@
   </si>
   <si>
     <t>https://www.datacamp.com/statement-of-accomplishment/course/a680d0a1e1715c9c7ce061ad5a3f17d014ccc304</t>
+  </si>
+  <si>
+    <t>Introduction to Tableau</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/020dc063034c0fe7057bb8629ce245a749169d21</t>
+  </si>
+  <si>
+    <t>Introduction to Power BI</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/0ac5f8ac9ad51ea069b70faa537b990b950459a5</t>
+  </si>
+  <si>
+    <t>Machine Learning for Everyone</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/56b464d54e6dff25e273ddb483e3f9ae6cbd35f0</t>
+  </si>
+  <si>
+    <t>Intermediate SQL</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/221f191a6bf59523214427e546d760259462b64b</t>
+  </si>
+  <si>
+    <t>PostgreSQL Summary Stats and Window Functions</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/0e3911334d495f894024c12ecc75d34086c2e61a</t>
+  </si>
+  <si>
+    <t>Functions for Manipulating Data in PostgreSQL</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/c710859bf45362d0cd4e4343755c67c3b0e73221</t>
+  </si>
+  <si>
+    <t>Introduction to MongoDB in Python</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/fac92a3ece6bcb055c1199cd8bbfbcd1363d4bc6</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/b2847b4d4a9260d7d1ab0d51128ede5a9886f689</t>
+  </si>
+  <si>
+    <t>Biomedical Image Analysis in Python</t>
+  </si>
+  <si>
+    <t>Introduction to Deep Learning with PyTorch</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/368d0538bd81c0ca089513a5a069a6c7f315bfe4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +598,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -854,7 +904,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -897,12 +947,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -936,6 +989,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -978,14 +1032,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_2" displayName="Table1_2" ref="A1:B64" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
-    <sortCondition ref="A1:A61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_2" displayName="Table1_2" ref="A1:B72" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B72" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
+    <sortCondition ref="A1:A71"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Nombre Curso" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Link Diploma" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Nombre Curso" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Link Diploma" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1288,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,18 +1356,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1326,496 +1380,573 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>130</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>126</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>113</v>
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{B63A2B57-C917-4C6C-BD40-A9C578242208}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{3327E385-382A-4D6E-8753-1DAEBDE8F1CB}"/>
+    <hyperlink ref="B44" r:id="rId3" xr:uid="{D39CAD92-45BC-4991-834D-8EB8BDF2A075}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{572F4E1B-DDFC-46F3-B512-FD9C5A5A06BB}"/>
+    <hyperlink ref="B54" r:id="rId5" xr:uid="{C77A3116-7777-4111-B1AE-3A706FF04E07}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{8457F690-470F-43EA-B8FD-5857E2A6CF3D}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{2EEB3DB4-FB27-4E36-9B4F-5404969B05DC}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{4FDEFF0E-7F92-4A22-9FB7-60E94D76D6E9}"/>
+    <hyperlink ref="B30" r:id="rId9" xr:uid="{1ED4EB03-E62B-44C6-8ECF-B790093481A7}"/>
+    <hyperlink ref="B72" r:id="rId10" xr:uid="{BADF1186-0EAD-49BF-A97B-4BA736594B90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
